--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,7 +476,7 @@
         <v>160</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM(A2:E2)</f>
+        <f t="shared" ref="F2:F20" si="0">SUM(A2:E2)</f>
         <v>790</v>
       </c>
       <c r="G2" s="3">
@@ -519,7 +519,7 @@
         <v>155</v>
       </c>
       <c r="F3" s="2">
-        <f>SUM(A3:E3)</f>
+        <f t="shared" si="0"/>
         <v>751</v>
       </c>
       <c r="G3" s="3">
@@ -562,7 +562,7 @@
         <v>151</v>
       </c>
       <c r="F4" s="2">
-        <f>SUM(A4:E4)</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="G4" s="3">
@@ -605,18 +605,31 @@
         <v>145</v>
       </c>
       <c r="F5" s="2">
-        <f>SUM(A5:E5)</f>
+        <f t="shared" si="0"/>
         <v>661</v>
       </c>
       <c r="G5" s="3">
         <v>44014</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="H5" s="2">
+        <v>128</v>
+      </c>
+      <c r="I5" s="2">
+        <v>130</v>
+      </c>
+      <c r="J5" s="2">
+        <v>125</v>
+      </c>
+      <c r="K5" s="2">
+        <v>140</v>
+      </c>
+      <c r="L5" s="2">
+        <v>149</v>
+      </c>
+      <c r="M5" s="2">
+        <f>SUM(H5:L5)</f>
+        <v>672</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -635,7 +648,7 @@
         <v>137</v>
       </c>
       <c r="F6" s="2">
-        <f>SUM(A6:E6)</f>
+        <f t="shared" si="0"/>
         <v>621</v>
       </c>
       <c r="G6" s="3">
@@ -665,7 +678,7 @@
         <v>126</v>
       </c>
       <c r="F7" s="2">
-        <f>SUM(A7:E7)</f>
+        <f t="shared" si="0"/>
         <v>575</v>
       </c>
       <c r="G7" s="3">
@@ -695,7 +708,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="2">
-        <f>SUM(A8:E8)</f>
+        <f t="shared" si="0"/>
         <v>534</v>
       </c>
       <c r="G8" s="3">
@@ -725,7 +738,7 @@
         <v>113</v>
       </c>
       <c r="F9" s="2">
-        <f>SUM(A9:E9)</f>
+        <f t="shared" si="0"/>
         <v>494</v>
       </c>
       <c r="G9" s="3">
@@ -755,7 +768,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="2">
-        <f>SUM(A10:E10)</f>
+        <f t="shared" si="0"/>
         <v>461</v>
       </c>
       <c r="G10" s="3">
@@ -785,7 +798,7 @@
         <v>95</v>
       </c>
       <c r="F11" s="2">
-        <f>SUM(A11:E11)</f>
+        <f t="shared" si="0"/>
         <v>422</v>
       </c>
       <c r="G11" s="3">
@@ -815,7 +828,7 @@
         <v>87</v>
       </c>
       <c r="F12" s="2">
-        <f>SUM(A12:E12)</f>
+        <f t="shared" si="0"/>
         <v>381</v>
       </c>
       <c r="G12" s="3">
@@ -845,7 +858,7 @@
         <v>74</v>
       </c>
       <c r="F13" s="2">
-        <f>SUM(A13:E13)</f>
+        <f t="shared" si="0"/>
         <v>333</v>
       </c>
       <c r="G13" s="3">
@@ -875,7 +888,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="2">
-        <f>SUM(A14:E14)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="G14" s="3">
@@ -905,7 +918,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="2">
-        <f>SUM(A15:E15)</f>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="G15" s="3">
@@ -935,7 +948,7 @@
         <v>53</v>
       </c>
       <c r="F16" s="2">
-        <f>SUM(A16:E16)</f>
+        <f t="shared" si="0"/>
         <v>231</v>
       </c>
       <c r="G16" s="3">
@@ -965,7 +978,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="2">
-        <f>SUM(A17:E17)</f>
+        <f t="shared" si="0"/>
         <v>187</v>
       </c>
       <c r="G17" s="3">
@@ -995,7 +1008,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="2">
-        <f>SUM(A18:E18)</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="G18" s="3">
@@ -1025,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="2">
-        <f>SUM(A19:E19)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G19" s="3">
@@ -1055,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="2">
-        <f>SUM(A20:E20)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G20" s="3">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,12 +654,25 @@
       <c r="G6" s="3">
         <v>44015</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="H6" s="2">
+        <v>125</v>
+      </c>
+      <c r="I6" s="2">
+        <v>117</v>
+      </c>
+      <c r="J6" s="2">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2">
+        <v>132</v>
+      </c>
+      <c r="L6" s="2">
+        <v>140</v>
+      </c>
+      <c r="M6" s="2">
+        <f>SUM(H6:L6)</f>
+        <v>627</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,12 +697,25 @@
       <c r="G7" s="3">
         <v>44016</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="H7" s="2">
+        <v>118</v>
+      </c>
+      <c r="I7" s="2">
+        <v>110</v>
+      </c>
+      <c r="J7" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" s="2">
+        <v>122</v>
+      </c>
+      <c r="L7" s="2">
+        <v>135</v>
+      </c>
+      <c r="M7" s="2">
+        <f>SUM(H7:L7)</f>
+        <v>597</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -727,12 +740,25 @@
       <c r="G8" s="3">
         <v>44017</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="H8" s="2">
+        <v>114</v>
+      </c>
+      <c r="I8" s="2">
+        <v>101</v>
+      </c>
+      <c r="J8" s="2">
+        <v>108</v>
+      </c>
+      <c r="K8" s="2">
+        <v>114</v>
+      </c>
+      <c r="L8" s="2">
+        <v>126</v>
+      </c>
+      <c r="M8" s="2">
+        <f>SUM(H8:L8)</f>
+        <v>563</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -757,12 +783,25 @@
       <c r="G9" s="3">
         <v>44018</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="H9" s="2">
+        <v>105</v>
+      </c>
+      <c r="I9" s="2">
+        <v>91</v>
+      </c>
+      <c r="J9" s="2">
+        <v>98</v>
+      </c>
+      <c r="K9" s="2">
+        <v>103</v>
+      </c>
+      <c r="L9" s="2">
+        <v>115</v>
+      </c>
+      <c r="M9" s="2">
+        <f>SUM(H9:L9)</f>
+        <v>512</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>160</v>
       </c>
       <c r="M2" s="2">
-        <f>SUM(H2:L2)</f>
+        <f t="shared" ref="M2:M10" si="1">SUM(H2:L2)</f>
         <v>788</v>
       </c>
     </row>
@@ -541,7 +541,7 @@
         <v>157</v>
       </c>
       <c r="M3" s="2">
-        <f>SUM(H3:L3)</f>
+        <f t="shared" si="1"/>
         <v>751</v>
       </c>
     </row>
@@ -584,7 +584,7 @@
         <v>152</v>
       </c>
       <c r="M4" s="2">
-        <f>SUM(H4:L4)</f>
+        <f t="shared" si="1"/>
         <v>707</v>
       </c>
     </row>
@@ -627,7 +627,7 @@
         <v>149</v>
       </c>
       <c r="M5" s="2">
-        <f>SUM(H5:L5)</f>
+        <f t="shared" si="1"/>
         <v>672</v>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>140</v>
       </c>
       <c r="M6" s="2">
-        <f>SUM(H6:L6)</f>
+        <f t="shared" si="1"/>
         <v>627</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
         <v>135</v>
       </c>
       <c r="M7" s="2">
-        <f>SUM(H7:L7)</f>
+        <f t="shared" si="1"/>
         <v>597</v>
       </c>
     </row>
@@ -756,7 +756,7 @@
         <v>126</v>
       </c>
       <c r="M8" s="2">
-        <f>SUM(H8:L8)</f>
+        <f t="shared" si="1"/>
         <v>563</v>
       </c>
     </row>
@@ -799,7 +799,7 @@
         <v>115</v>
       </c>
       <c r="M9" s="2">
-        <f>SUM(H9:L9)</f>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
     </row>
@@ -826,12 +826,25 @@
       <c r="G10" s="3">
         <v>44019</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="H10" s="2">
+        <v>108</v>
+      </c>
+      <c r="I10" s="2">
+        <v>80</v>
+      </c>
+      <c r="J10" s="2">
+        <v>92</v>
+      </c>
+      <c r="K10" s="2">
+        <v>95</v>
+      </c>
+      <c r="L10" s="2">
+        <v>104</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>479</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>160</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M10" si="1">SUM(H2:L2)</f>
+        <f t="shared" ref="M2:M12" si="1">SUM(H2:L2)</f>
         <v>788</v>
       </c>
     </row>
@@ -869,12 +869,25 @@
       <c r="G11" s="3">
         <v>44020</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="H11" s="2">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
+        <v>68</v>
+      </c>
+      <c r="J11" s="2">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2">
+        <v>97</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -899,12 +912,25 @@
       <c r="G12" s="3">
         <v>44021</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2">
+        <v>78</v>
+      </c>
+      <c r="L12" s="2">
+        <v>87</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>160</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M12" si="1">SUM(H2:L2)</f>
+        <f t="shared" ref="M2:M13" si="1">SUM(H2:L2)</f>
         <v>788</v>
       </c>
     </row>
@@ -955,12 +955,25 @@
       <c r="G13" s="3">
         <v>44022</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="H13" s="2">
+        <v>98</v>
+      </c>
+      <c r="I13" s="2">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2">
+        <v>61</v>
+      </c>
+      <c r="K13" s="2">
+        <v>68</v>
+      </c>
+      <c r="L13" s="2">
+        <v>75</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>160</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M13" si="1">SUM(H2:L2)</f>
+        <f t="shared" ref="M2:M16" si="1">SUM(H2:L2)</f>
         <v>788</v>
       </c>
     </row>
@@ -998,12 +998,25 @@
       <c r="G14" s="3">
         <v>44023</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="H14" s="2">
+        <v>85</v>
+      </c>
+      <c r="I14" s="2">
+        <v>47</v>
+      </c>
+      <c r="J14" s="2">
+        <v>52</v>
+      </c>
+      <c r="K14" s="2">
+        <v>60</v>
+      </c>
+      <c r="L14" s="2">
+        <v>68</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1028,12 +1041,25 @@
       <c r="G15" s="3">
         <v>44024</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="H15" s="2">
+        <v>89</v>
+      </c>
+      <c r="I15" s="2">
+        <v>39</v>
+      </c>
+      <c r="J15" s="2">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
+        <v>51</v>
+      </c>
+      <c r="L15" s="2">
+        <v>62</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1058,12 +1084,25 @@
       <c r="G16" s="3">
         <v>44025</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="H16" s="2">
+        <v>86</v>
+      </c>
+      <c r="I16" s="2">
+        <v>31</v>
+      </c>
+      <c r="J16" s="2">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2">
+        <v>37</v>
+      </c>
+      <c r="L16" s="2">
+        <v>55</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>160</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M16" si="1">SUM(H2:L2)</f>
+        <f t="shared" ref="M2:M17" si="1">SUM(H2:L2)</f>
         <v>788</v>
       </c>
     </row>
@@ -1127,12 +1127,25 @@
       <c r="G17" s="3">
         <v>44026</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="H17" s="2">
+        <v>71</v>
+      </c>
+      <c r="I17" s="2">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2">
+        <v>33</v>
+      </c>
+      <c r="L17" s="2">
+        <v>49</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1170,11 +1170,19 @@
       <c r="G18" s="3">
         <v>44027</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="H18" s="2">
+        <v>55</v>
+      </c>
+      <c r="I18" s="2">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>16</v>
+      </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>33</v>
+      </c>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">

--- a/燃尽图(每日更新)/每日燃尽图统计.xlsx
+++ b/燃尽图(每日更新)/每日燃尽图统计.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>160</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M17" si="1">SUM(H2:L2)</f>
+        <f t="shared" ref="M2:M20" si="1">SUM(H2:L2)</f>
         <v>788</v>
       </c>
     </row>
@@ -1179,11 +1179,16 @@
       <c r="J18" s="2">
         <v>16</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>29</v>
+      </c>
       <c r="L18" s="2">
         <v>33</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1208,12 +1213,25 @@
       <c r="G19" s="3">
         <v>44028</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="H19" s="2">
+        <v>33</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7</v>
+      </c>
+      <c r="J19" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1238,12 +1256,25 @@
       <c r="G20" s="3">
         <v>44029</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
